--- a/source/_posts/工作簿1.xlsx
+++ b/source/_posts/工作簿1.xlsx
@@ -754,7 +754,7 @@
   <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
